--- a/CO PO Mapping/DSU/Criteria 3_PO attain_DSU_CO3I_19-20_CO_GRWPL.xlsx
+++ b/CO PO Mapping/DSU/Criteria 3_PO attain_DSU_CO3I_19-20_CO_GRWPL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="15600" windowHeight="7875" tabRatio="715" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="15600" windowHeight="7875" tabRatio="715" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PO Set Target attain level" sheetId="12" r:id="rId1"/>
@@ -3280,6 +3280,94 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3288,12 +3376,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3304,56 +3388,266 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3368,258 +3662,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3678,31 +3742,51 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3710,6 +3794,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3720,60 +3814,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
@@ -3842,30 +3882,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3923,55 +3939,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4001,59 +4045,59 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4078,50 +4122,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4519,50 +4519,50 @@
       <c r="C8" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="285" t="s">
+      <c r="D8" s="294" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="286"/>
+      <c r="E8" s="295"/>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1">
       <c r="B9" s="137"/>
       <c r="C9" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="285" t="s">
+      <c r="D9" s="294" t="s">
         <v>268</v>
       </c>
-      <c r="E9" s="286"/>
+      <c r="E9" s="295"/>
     </row>
     <row r="10" spans="2:13" ht="32.25" customHeight="1">
       <c r="B10" s="137"/>
       <c r="C10" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="285" t="s">
+      <c r="D10" s="294" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="286"/>
+      <c r="E10" s="295"/>
     </row>
     <row r="11" spans="2:13" ht="28.5" customHeight="1">
       <c r="B11" s="137"/>
       <c r="C11" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="287" t="s">
+      <c r="D11" s="308" t="s">
         <v>270</v>
       </c>
-      <c r="E11" s="288"/>
+      <c r="E11" s="309"/>
     </row>
     <row r="12" spans="2:13" ht="27.75" customHeight="1">
       <c r="B12" s="137"/>
       <c r="C12" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="285" t="s">
+      <c r="D12" s="294" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="286"/>
+      <c r="E12" s="295"/>
     </row>
     <row r="14" spans="2:13" ht="18.75">
       <c r="B14" s="115" t="s">
@@ -4597,31 +4597,31 @@
       <c r="M15" s="114"/>
     </row>
     <row r="16" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B16" s="292" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="295" t="s">
+      <c r="B16" s="296" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="299" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="296"/>
-      <c r="E16" s="283" t="s">
+      <c r="D16" s="300"/>
+      <c r="E16" s="305" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="284"/>
-      <c r="J16" s="284"/>
-      <c r="K16" s="301"/>
-      <c r="L16" s="283" t="s">
+      <c r="F16" s="306"/>
+      <c r="G16" s="306"/>
+      <c r="H16" s="306"/>
+      <c r="I16" s="306"/>
+      <c r="J16" s="306"/>
+      <c r="K16" s="307"/>
+      <c r="L16" s="305" t="s">
         <v>97</v>
       </c>
-      <c r="M16" s="284"/>
+      <c r="M16" s="306"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B17" s="293"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="298"/>
+      <c r="B17" s="297"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="302"/>
       <c r="E17" s="118" t="s">
         <v>98</v>
       </c>
@@ -4651,9 +4651,9 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="88.5" customHeight="1" thickBot="1">
-      <c r="B18" s="294"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="300"/>
+      <c r="B18" s="298"/>
+      <c r="C18" s="303"/>
+      <c r="D18" s="304"/>
       <c r="E18" s="119" t="s">
         <v>133</v>
       </c>
@@ -4883,11 +4883,11 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="291" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="290"/>
-      <c r="D24" s="291"/>
+      <c r="C24" s="292"/>
+      <c r="D24" s="293"/>
       <c r="E24" s="127">
         <f t="shared" ref="E24:K24" si="1">ROUNDUP(AVERAGE(E19:E23),2)</f>
         <v>2.8</v>
@@ -4942,16 +4942,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:D18"/>
     <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5930,7 +5930,7 @@
   </sheetPr>
   <dimension ref="A1:BI110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C62" zoomScale="118" zoomScaleNormal="118" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="C31" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
@@ -6002,55 +6002,55 @@
     </row>
     <row r="7" spans="1:61" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:61" s="5" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A8" s="304" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="302" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="302" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="302" t="s">
+      <c r="A8" s="379" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="377" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="377" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="377" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
+      <c r="E8" s="377"/>
+      <c r="F8" s="377"/>
+      <c r="G8" s="377"/>
+      <c r="H8" s="377"/>
+      <c r="I8" s="377"/>
+      <c r="J8" s="377"/>
+      <c r="K8" s="377"/>
+      <c r="L8" s="377"/>
       <c r="M8" s="281"/>
-      <c r="N8" s="302" t="s">
+      <c r="N8" s="377" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="302"/>
-      <c r="P8" s="302"/>
-      <c r="Q8" s="302"/>
-      <c r="R8" s="302"/>
-      <c r="S8" s="302"/>
-      <c r="T8" s="302"/>
-      <c r="U8" s="302"/>
-      <c r="V8" s="302"/>
-      <c r="W8" s="302"/>
-      <c r="X8" s="311" t="s">
+      <c r="O8" s="377"/>
+      <c r="P8" s="377"/>
+      <c r="Q8" s="377"/>
+      <c r="R8" s="377"/>
+      <c r="S8" s="377"/>
+      <c r="T8" s="377"/>
+      <c r="U8" s="377"/>
+      <c r="V8" s="377"/>
+      <c r="W8" s="377"/>
+      <c r="X8" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="314" t="s">
+      <c r="Y8" s="353" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="322" t="s">
+      <c r="Z8" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="324" t="s">
+      <c r="AA8" s="360" t="s">
         <v>16</v>
       </c>
-      <c r="AB8" s="326" t="s">
+      <c r="AB8" s="362" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="511" t="s">
+      <c r="AC8" s="364" t="s">
         <v>18</v>
       </c>
       <c r="AD8" s="172" t="s">
@@ -6091,47 +6091,47 @@
       <c r="BI8" s="21"/>
     </row>
     <row r="9" spans="1:61" s="5" customFormat="1" ht="18.95" customHeight="1" thickBot="1">
-      <c r="A9" s="304"/>
-      <c r="B9" s="302"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="303" t="s">
+      <c r="A9" s="379"/>
+      <c r="B9" s="377"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="378" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="303"/>
-      <c r="J9" s="303" t="s">
+      <c r="E9" s="378"/>
+      <c r="F9" s="378"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="378"/>
+      <c r="I9" s="378"/>
+      <c r="J9" s="378" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="303"/>
-      <c r="L9" s="303"/>
+      <c r="K9" s="378"/>
+      <c r="L9" s="378"/>
       <c r="M9" s="282"/>
-      <c r="N9" s="303" t="s">
+      <c r="N9" s="378" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="303"/>
-      <c r="P9" s="303"/>
-      <c r="Q9" s="303"/>
-      <c r="R9" s="303"/>
-      <c r="S9" s="303" t="s">
+      <c r="O9" s="378"/>
+      <c r="P9" s="378"/>
+      <c r="Q9" s="378"/>
+      <c r="R9" s="378"/>
+      <c r="S9" s="378" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="303"/>
-      <c r="U9" s="303"/>
-      <c r="V9" s="303"/>
-      <c r="W9" s="303"/>
-      <c r="X9" s="312"/>
-      <c r="Y9" s="315"/>
-      <c r="Z9" s="323"/>
-      <c r="AA9" s="325"/>
-      <c r="AB9" s="327"/>
-      <c r="AC9" s="512"/>
-      <c r="AD9" s="339" t="s">
+      <c r="T9" s="378"/>
+      <c r="U9" s="378"/>
+      <c r="V9" s="378"/>
+      <c r="W9" s="378"/>
+      <c r="X9" s="351"/>
+      <c r="Y9" s="354"/>
+      <c r="Z9" s="359"/>
+      <c r="AA9" s="361"/>
+      <c r="AB9" s="363"/>
+      <c r="AC9" s="365"/>
+      <c r="AD9" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="AE9" s="340"/>
+      <c r="AE9" s="329"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="21"/>
       <c r="AH9" s="21"/>
@@ -6164,9 +6164,9 @@
       <c r="BI9" s="21"/>
     </row>
     <row r="10" spans="1:61" s="5" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A10" s="304"/>
-      <c r="B10" s="302"/>
-      <c r="C10" s="302"/>
+      <c r="A10" s="379"/>
+      <c r="B10" s="377"/>
+      <c r="C10" s="377"/>
       <c r="D10" s="197" t="s">
         <v>6</v>
       </c>
@@ -6176,13 +6176,13 @@
       <c r="F10" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="506" t="s">
+      <c r="G10" s="286" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="505" t="s">
+      <c r="I10" s="285" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="214" t="s">
@@ -6224,17 +6224,17 @@
       <c r="V10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W10" s="505" t="s">
+      <c r="W10" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="X10" s="312"/>
-      <c r="Y10" s="315"/>
-      <c r="Z10" s="323"/>
-      <c r="AA10" s="325"/>
-      <c r="AB10" s="327"/>
-      <c r="AC10" s="512"/>
-      <c r="AD10" s="339"/>
-      <c r="AE10" s="340"/>
+      <c r="X10" s="351"/>
+      <c r="Y10" s="354"/>
+      <c r="Z10" s="359"/>
+      <c r="AA10" s="361"/>
+      <c r="AB10" s="363"/>
+      <c r="AC10" s="365"/>
+      <c r="AD10" s="328"/>
+      <c r="AE10" s="329"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
       <c r="AH10" s="21"/>
@@ -6267,9 +6267,9 @@
       <c r="BI10" s="21"/>
     </row>
     <row r="11" spans="1:61" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="304"/>
-      <c r="B11" s="302"/>
-      <c r="C11" s="302"/>
+      <c r="A11" s="379"/>
+      <c r="B11" s="377"/>
+      <c r="C11" s="377"/>
       <c r="D11" s="199" t="s">
         <v>25</v>
       </c>
@@ -6279,13 +6279,13 @@
       <c r="F11" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="506" t="s">
+      <c r="G11" s="286" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="503">
+      <c r="I11" s="283">
         <v>0</v>
       </c>
       <c r="J11" s="214" t="s">
@@ -6327,15 +6327,15 @@
       <c r="V11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="503"/>
-      <c r="X11" s="313"/>
-      <c r="Y11" s="315"/>
-      <c r="Z11" s="323"/>
-      <c r="AA11" s="325"/>
-      <c r="AB11" s="327"/>
-      <c r="AC11" s="513"/>
-      <c r="AD11" s="339"/>
-      <c r="AE11" s="341"/>
+      <c r="W11" s="283"/>
+      <c r="X11" s="352"/>
+      <c r="Y11" s="354"/>
+      <c r="Z11" s="359"/>
+      <c r="AA11" s="361"/>
+      <c r="AB11" s="363"/>
+      <c r="AC11" s="366"/>
+      <c r="AD11" s="328"/>
+      <c r="AE11" s="330"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
       <c r="AH11" s="21"/>
@@ -6368,9 +6368,9 @@
       <c r="BI11" s="21"/>
     </row>
     <row r="12" spans="1:61" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A12" s="304"/>
-      <c r="B12" s="302"/>
-      <c r="C12" s="302"/>
+      <c r="A12" s="379"/>
+      <c r="B12" s="377"/>
+      <c r="C12" s="377"/>
       <c r="D12" s="201">
         <v>2</v>
       </c>
@@ -6380,13 +6380,13 @@
       <c r="F12" s="202">
         <v>2</v>
       </c>
-      <c r="G12" s="506">
+      <c r="G12" s="286">
         <v>2</v>
       </c>
       <c r="H12" s="213">
         <v>2</v>
       </c>
-      <c r="I12" s="504">
+      <c r="I12" s="284">
         <v>0</v>
       </c>
       <c r="J12" s="214">
@@ -6428,7 +6428,7 @@
       <c r="V12" s="30">
         <v>4</v>
       </c>
-      <c r="W12" s="504">
+      <c r="W12" s="284">
         <v>0</v>
       </c>
       <c r="X12" s="231">
@@ -6495,13 +6495,13 @@
       <c r="BI12" s="21"/>
     </row>
     <row r="13" spans="1:61" s="21" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A13" s="507">
+      <c r="A13" s="287">
         <v>1</v>
       </c>
-      <c r="B13" s="508">
+      <c r="B13" s="288">
         <v>1801360166</v>
       </c>
-      <c r="C13" s="509" t="s">
+      <c r="C13" s="289" t="s">
         <v>247</v>
       </c>
       <c r="D13" s="201">
@@ -6513,11 +6513,11 @@
       <c r="F13" s="202">
         <v>1</v>
       </c>
-      <c r="G13" s="506"/>
+      <c r="G13" s="286"/>
       <c r="H13" s="213">
         <v>2</v>
       </c>
-      <c r="I13" s="504"/>
+      <c r="I13" s="284"/>
       <c r="J13" s="214">
         <v>0</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="V13" s="30">
         <v>0</v>
       </c>
-      <c r="W13" s="504"/>
+      <c r="W13" s="284"/>
       <c r="X13" s="231">
         <f t="shared" ref="X13:X76" si="0">D13+E13+F13+M13</f>
         <v>5</v>
@@ -6582,7 +6582,7 @@
         <f t="shared" ref="AD13:AD76" si="5">SUM(D13:M13)</f>
         <v>12</v>
       </c>
-      <c r="AE13" s="510">
+      <c r="AE13" s="290">
         <f>SUM(N13:W13)</f>
         <v>4</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="F14" s="204">
         <v>2</v>
       </c>
-      <c r="G14" s="506">
+      <c r="G14" s="286">
         <v>2</v>
       </c>
       <c r="H14" s="215"/>
@@ -6731,7 +6731,7 @@
       <c r="F15" s="204">
         <v>1</v>
       </c>
-      <c r="G15" s="506"/>
+      <c r="G15" s="286"/>
       <c r="H15" s="215">
         <v>2</v>
       </c>
@@ -6818,7 +6818,7 @@
       <c r="F16" s="204">
         <v>2</v>
       </c>
-      <c r="G16" s="506">
+      <c r="G16" s="286">
         <v>2</v>
       </c>
       <c r="H16" s="215">
@@ -6917,7 +6917,7 @@
       <c r="F17" s="204">
         <v>2</v>
       </c>
-      <c r="G17" s="506">
+      <c r="G17" s="286">
         <v>1</v>
       </c>
       <c r="H17" s="215">
@@ -7012,7 +7012,7 @@
       <c r="F18" s="204">
         <v>2</v>
       </c>
-      <c r="G18" s="506">
+      <c r="G18" s="286">
         <v>2</v>
       </c>
       <c r="H18" s="215">
@@ -7111,7 +7111,7 @@
       <c r="F19" s="204">
         <v>2</v>
       </c>
-      <c r="G19" s="506">
+      <c r="G19" s="286">
         <v>2</v>
       </c>
       <c r="H19" s="215"/>
@@ -7202,7 +7202,7 @@
       <c r="F20" s="204">
         <v>1</v>
       </c>
-      <c r="G20" s="506">
+      <c r="G20" s="286">
         <v>2</v>
       </c>
       <c r="H20" s="215">
@@ -7299,7 +7299,7 @@
       <c r="F21" s="204">
         <v>2</v>
       </c>
-      <c r="G21" s="506">
+      <c r="G21" s="286">
         <v>2</v>
       </c>
       <c r="H21" s="215">
@@ -7396,7 +7396,7 @@
       <c r="F22" s="204">
         <v>2</v>
       </c>
-      <c r="G22" s="506"/>
+      <c r="G22" s="286"/>
       <c r="H22" s="215">
         <v>2</v>
       </c>
@@ -7491,7 +7491,7 @@
       <c r="F23" s="204">
         <v>1</v>
       </c>
-      <c r="G23" s="506">
+      <c r="G23" s="286">
         <v>1</v>
       </c>
       <c r="H23" s="215">
@@ -7584,7 +7584,7 @@
       <c r="F24" s="204">
         <v>1</v>
       </c>
-      <c r="G24" s="506"/>
+      <c r="G24" s="286"/>
       <c r="H24" s="215"/>
       <c r="I24" s="216"/>
       <c r="J24" s="214">
@@ -7673,7 +7673,7 @@
       <c r="F25" s="204">
         <v>2</v>
       </c>
-      <c r="G25" s="506">
+      <c r="G25" s="286">
         <v>2</v>
       </c>
       <c r="H25" s="215">
@@ -7766,7 +7766,7 @@
       <c r="F26" s="204">
         <v>2</v>
       </c>
-      <c r="G26" s="506">
+      <c r="G26" s="286">
         <v>1</v>
       </c>
       <c r="H26" s="215">
@@ -7861,7 +7861,7 @@
       <c r="F27" s="204">
         <v>1</v>
       </c>
-      <c r="G27" s="506">
+      <c r="G27" s="286">
         <v>2</v>
       </c>
       <c r="H27" s="215"/>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="204"/>
-      <c r="G28" s="506"/>
+      <c r="G28" s="286"/>
       <c r="H28" s="215">
         <v>2</v>
       </c>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="E29" s="204"/>
       <c r="F29" s="204"/>
-      <c r="G29" s="506">
+      <c r="G29" s="286">
         <v>1</v>
       </c>
       <c r="H29" s="215">
@@ -8118,7 +8118,7 @@
       <c r="F30" s="204">
         <v>2</v>
       </c>
-      <c r="G30" s="506"/>
+      <c r="G30" s="286"/>
       <c r="H30" s="215">
         <v>2</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="F31" s="204">
         <v>2</v>
       </c>
-      <c r="G31" s="506">
+      <c r="G31" s="286">
         <v>1</v>
       </c>
       <c r="H31" s="215">
@@ -8310,7 +8310,7 @@
       <c r="F32" s="204">
         <v>1</v>
       </c>
-      <c r="G32" s="506">
+      <c r="G32" s="286">
         <v>0</v>
       </c>
       <c r="H32" s="215">
@@ -8401,7 +8401,7 @@
       <c r="F33" s="204">
         <v>2</v>
       </c>
-      <c r="G33" s="506"/>
+      <c r="G33" s="286"/>
       <c r="H33" s="215">
         <v>2</v>
       </c>
@@ -8482,7 +8482,7 @@
       <c r="F34" s="204">
         <v>2</v>
       </c>
-      <c r="G34" s="506">
+      <c r="G34" s="286">
         <v>2</v>
       </c>
       <c r="H34" s="215">
@@ -8575,7 +8575,7 @@
       <c r="F35" s="204">
         <v>2</v>
       </c>
-      <c r="G35" s="506">
+      <c r="G35" s="286">
         <v>1</v>
       </c>
       <c r="H35" s="215">
@@ -8666,7 +8666,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="204"/>
-      <c r="G36" s="506">
+      <c r="G36" s="286">
         <v>2</v>
       </c>
       <c r="H36" s="215">
@@ -8763,7 +8763,7 @@
       <c r="F37" s="204">
         <v>2</v>
       </c>
-      <c r="G37" s="506">
+      <c r="G37" s="286">
         <v>2</v>
       </c>
       <c r="H37" s="215">
@@ -8856,7 +8856,7 @@
       <c r="F38" s="204">
         <v>2</v>
       </c>
-      <c r="G38" s="506">
+      <c r="G38" s="286">
         <v>2</v>
       </c>
       <c r="H38" s="215">
@@ -8945,7 +8945,7 @@
       <c r="F39" s="204">
         <v>2</v>
       </c>
-      <c r="G39" s="506">
+      <c r="G39" s="286">
         <v>2</v>
       </c>
       <c r="H39" s="215">
@@ -9042,7 +9042,7 @@
       <c r="F40" s="204">
         <v>2</v>
       </c>
-      <c r="G40" s="506"/>
+      <c r="G40" s="286"/>
       <c r="H40" s="215">
         <v>2</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="F41" s="204">
         <v>2</v>
       </c>
-      <c r="G41" s="506">
+      <c r="G41" s="286">
         <v>2</v>
       </c>
       <c r="H41" s="215">
@@ -9222,7 +9222,7 @@
       <c r="F42" s="204">
         <v>0</v>
       </c>
-      <c r="G42" s="506">
+      <c r="G42" s="286">
         <v>2</v>
       </c>
       <c r="H42" s="215">
@@ -9315,7 +9315,7 @@
       <c r="F43" s="204">
         <v>2</v>
       </c>
-      <c r="G43" s="506">
+      <c r="G43" s="286">
         <v>2</v>
       </c>
       <c r="H43" s="215">
@@ -9412,7 +9412,7 @@
       <c r="F44" s="204">
         <v>2</v>
       </c>
-      <c r="G44" s="506">
+      <c r="G44" s="286">
         <v>2</v>
       </c>
       <c r="H44" s="215">
@@ -9505,7 +9505,7 @@
       <c r="F45" s="204">
         <v>1</v>
       </c>
-      <c r="G45" s="506">
+      <c r="G45" s="286">
         <v>2</v>
       </c>
       <c r="H45" s="215">
@@ -9594,7 +9594,7 @@
       <c r="F46" s="204">
         <v>2</v>
       </c>
-      <c r="G46" s="506">
+      <c r="G46" s="286">
         <v>2</v>
       </c>
       <c r="H46" s="215">
@@ -9685,7 +9685,7 @@
       <c r="F47" s="204">
         <v>2</v>
       </c>
-      <c r="G47" s="506">
+      <c r="G47" s="286">
         <v>2</v>
       </c>
       <c r="H47" s="215"/>
@@ -9776,7 +9776,7 @@
       <c r="F48" s="204">
         <v>1</v>
       </c>
-      <c r="G48" s="506">
+      <c r="G48" s="286">
         <v>2</v>
       </c>
       <c r="H48" s="215">
@@ -9869,7 +9869,7 @@
       <c r="F49" s="204">
         <v>1</v>
       </c>
-      <c r="G49" s="506"/>
+      <c r="G49" s="286"/>
       <c r="H49" s="215">
         <v>2</v>
       </c>
@@ -9952,7 +9952,7 @@
       <c r="F50" s="204">
         <v>2</v>
       </c>
-      <c r="G50" s="506">
+      <c r="G50" s="286">
         <v>2</v>
       </c>
       <c r="H50" s="215">
@@ -10051,7 +10051,7 @@
       <c r="F51" s="204">
         <v>1</v>
       </c>
-      <c r="G51" s="506"/>
+      <c r="G51" s="286"/>
       <c r="H51" s="215"/>
       <c r="I51" s="216"/>
       <c r="J51" s="214">
@@ -10134,7 +10134,7 @@
       <c r="F52" s="204">
         <v>2</v>
       </c>
-      <c r="G52" s="506"/>
+      <c r="G52" s="286"/>
       <c r="H52" s="215">
         <v>2</v>
       </c>
@@ -10223,7 +10223,7 @@
       <c r="F53" s="204">
         <v>2</v>
       </c>
-      <c r="G53" s="506">
+      <c r="G53" s="286">
         <v>2</v>
       </c>
       <c r="H53" s="215">
@@ -10314,7 +10314,7 @@
       <c r="F54" s="204">
         <v>2</v>
       </c>
-      <c r="G54" s="506"/>
+      <c r="G54" s="286"/>
       <c r="H54" s="215">
         <v>2</v>
       </c>
@@ -10405,7 +10405,7 @@
       <c r="F55" s="204">
         <v>2</v>
       </c>
-      <c r="G55" s="506"/>
+      <c r="G55" s="286"/>
       <c r="H55" s="215">
         <v>2</v>
       </c>
@@ -10492,7 +10492,7 @@
       <c r="F56" s="204">
         <v>2</v>
       </c>
-      <c r="G56" s="506">
+      <c r="G56" s="286">
         <v>1</v>
       </c>
       <c r="H56" s="215">
@@ -10583,7 +10583,7 @@
       <c r="F57" s="204">
         <v>2</v>
       </c>
-      <c r="G57" s="506"/>
+      <c r="G57" s="286"/>
       <c r="H57" s="215">
         <v>2</v>
       </c>
@@ -10674,7 +10674,7 @@
       <c r="F58" s="204">
         <v>2</v>
       </c>
-      <c r="G58" s="506"/>
+      <c r="G58" s="286"/>
       <c r="H58" s="215">
         <v>2</v>
       </c>
@@ -10769,7 +10769,7 @@
       <c r="F59" s="204">
         <v>1</v>
       </c>
-      <c r="G59" s="506">
+      <c r="G59" s="286">
         <v>0</v>
       </c>
       <c r="H59" s="215">
@@ -10864,7 +10864,7 @@
       <c r="F60" s="204">
         <v>2</v>
       </c>
-      <c r="G60" s="506">
+      <c r="G60" s="286">
         <v>2</v>
       </c>
       <c r="H60" s="215">
@@ -10961,7 +10961,7 @@
       <c r="F61" s="204">
         <v>2</v>
       </c>
-      <c r="G61" s="506">
+      <c r="G61" s="286">
         <v>2</v>
       </c>
       <c r="H61" s="215">
@@ -11060,7 +11060,7 @@
       <c r="F62" s="204">
         <v>2</v>
       </c>
-      <c r="G62" s="506"/>
+      <c r="G62" s="286"/>
       <c r="H62" s="215">
         <v>2</v>
       </c>
@@ -11147,7 +11147,7 @@
       <c r="F63" s="204">
         <v>2</v>
       </c>
-      <c r="G63" s="506">
+      <c r="G63" s="286">
         <v>2</v>
       </c>
       <c r="H63" s="215">
@@ -11240,7 +11240,7 @@
       <c r="F64" s="204">
         <v>2</v>
       </c>
-      <c r="G64" s="506">
+      <c r="G64" s="286">
         <v>2</v>
       </c>
       <c r="H64" s="215">
@@ -11333,7 +11333,7 @@
       <c r="F65" s="204">
         <v>2</v>
       </c>
-      <c r="G65" s="506">
+      <c r="G65" s="286">
         <v>2</v>
       </c>
       <c r="H65" s="215">
@@ -11428,7 +11428,7 @@
       <c r="F66" s="204">
         <v>2</v>
       </c>
-      <c r="G66" s="506">
+      <c r="G66" s="286">
         <v>2</v>
       </c>
       <c r="H66" s="215">
@@ -11525,7 +11525,7 @@
       <c r="F67" s="204">
         <v>1</v>
       </c>
-      <c r="G67" s="506">
+      <c r="G67" s="286">
         <v>2</v>
       </c>
       <c r="H67" s="215">
@@ -11620,7 +11620,7 @@
       <c r="F68" s="204">
         <v>2</v>
       </c>
-      <c r="G68" s="506">
+      <c r="G68" s="286">
         <v>2</v>
       </c>
       <c r="H68" s="215">
@@ -11715,7 +11715,7 @@
       <c r="F69" s="204">
         <v>2</v>
       </c>
-      <c r="G69" s="506">
+      <c r="G69" s="286">
         <v>2</v>
       </c>
       <c r="H69" s="215">
@@ -11808,7 +11808,7 @@
       <c r="F70" s="204">
         <v>2</v>
       </c>
-      <c r="G70" s="506">
+      <c r="G70" s="286">
         <v>2</v>
       </c>
       <c r="H70" s="215">
@@ -11905,7 +11905,7 @@
       <c r="F71" s="204">
         <v>2</v>
       </c>
-      <c r="G71" s="506">
+      <c r="G71" s="286">
         <v>2</v>
       </c>
       <c r="H71" s="215">
@@ -12000,7 +12000,7 @@
       <c r="F72" s="204">
         <v>1</v>
       </c>
-      <c r="G72" s="506"/>
+      <c r="G72" s="286"/>
       <c r="H72" s="215">
         <v>2</v>
       </c>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="E73" s="204"/>
       <c r="F73" s="204"/>
-      <c r="G73" s="506"/>
+      <c r="G73" s="286"/>
       <c r="H73" s="215"/>
       <c r="I73" s="216"/>
       <c r="J73" s="214">
@@ -12158,7 +12158,7 @@
       <c r="F74" s="204">
         <v>2</v>
       </c>
-      <c r="G74" s="506"/>
+      <c r="G74" s="286"/>
       <c r="H74" s="215">
         <v>2</v>
       </c>
@@ -12247,7 +12247,7 @@
       <c r="F75" s="204">
         <v>2</v>
       </c>
-      <c r="G75" s="506">
+      <c r="G75" s="286">
         <v>2</v>
       </c>
       <c r="H75" s="215"/>
@@ -12340,7 +12340,7 @@
       <c r="F76" s="204">
         <v>2</v>
       </c>
-      <c r="G76" s="506">
+      <c r="G76" s="286">
         <v>2</v>
       </c>
       <c r="H76" s="215">
@@ -12429,7 +12429,7 @@
       <c r="F77" s="204">
         <v>1</v>
       </c>
-      <c r="G77" s="506"/>
+      <c r="G77" s="286"/>
       <c r="H77" s="215">
         <v>2</v>
       </c>
@@ -12512,7 +12512,7 @@
       <c r="F78" s="204">
         <v>1</v>
       </c>
-      <c r="G78" s="506">
+      <c r="G78" s="286">
         <v>2</v>
       </c>
       <c r="H78" s="215">
@@ -12587,7 +12587,7 @@
       <c r="D79" s="203"/>
       <c r="E79" s="204"/>
       <c r="F79" s="204"/>
-      <c r="G79" s="506"/>
+      <c r="G79" s="286"/>
       <c r="H79" s="215"/>
       <c r="I79" s="216"/>
       <c r="J79" s="214"/>
@@ -12620,7 +12620,7 @@
       <c r="D80" s="203"/>
       <c r="E80" s="204"/>
       <c r="F80" s="204"/>
-      <c r="G80" s="506"/>
+      <c r="G80" s="286"/>
       <c r="H80" s="215"/>
       <c r="I80" s="216"/>
       <c r="J80" s="214"/>
@@ -12653,7 +12653,7 @@
       <c r="D81" s="203"/>
       <c r="E81" s="204"/>
       <c r="F81" s="204"/>
-      <c r="G81" s="506"/>
+      <c r="G81" s="286"/>
       <c r="H81" s="215"/>
       <c r="I81" s="216"/>
       <c r="J81" s="214"/>
@@ -12686,7 +12686,7 @@
       <c r="D82" s="203"/>
       <c r="E82" s="204"/>
       <c r="F82" s="204"/>
-      <c r="G82" s="506"/>
+      <c r="G82" s="286"/>
       <c r="H82" s="215"/>
       <c r="I82" s="216"/>
       <c r="J82" s="214"/>
@@ -12719,7 +12719,7 @@
       <c r="D83" s="203"/>
       <c r="E83" s="204"/>
       <c r="F83" s="204"/>
-      <c r="G83" s="506"/>
+      <c r="G83" s="286"/>
       <c r="H83" s="215"/>
       <c r="I83" s="216"/>
       <c r="J83" s="214"/>
@@ -12752,7 +12752,7 @@
       <c r="D84" s="205"/>
       <c r="E84" s="206"/>
       <c r="F84" s="206"/>
-      <c r="G84" s="506"/>
+      <c r="G84" s="286"/>
       <c r="H84" s="218"/>
       <c r="I84" s="219"/>
       <c r="J84" s="214"/>
@@ -12781,158 +12781,158 @@
     <row r="85" spans="1:31" ht="15" customHeight="1" thickBot="1">
       <c r="A85" s="13"/>
       <c r="M85" s="204"/>
-      <c r="N85" s="328" t="s">
+      <c r="N85" s="367" t="s">
         <v>33</v>
       </c>
-      <c r="O85" s="329"/>
-      <c r="P85" s="329"/>
-      <c r="Q85" s="329"/>
-      <c r="R85" s="329"/>
-      <c r="S85" s="329"/>
-      <c r="T85" s="329"/>
-      <c r="U85" s="329"/>
-      <c r="V85" s="329"/>
-      <c r="W85" s="330"/>
-      <c r="X85" s="331">
+      <c r="O85" s="368"/>
+      <c r="P85" s="368"/>
+      <c r="Q85" s="368"/>
+      <c r="R85" s="368"/>
+      <c r="S85" s="368"/>
+      <c r="T85" s="368"/>
+      <c r="U85" s="368"/>
+      <c r="V85" s="368"/>
+      <c r="W85" s="369"/>
+      <c r="X85" s="370">
         <f t="shared" ref="X85:AC85" si="13">0.4*X12</f>
         <v>4</v>
       </c>
-      <c r="Y85" s="333">
+      <c r="Y85" s="372">
         <f t="shared" si="13"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="Z85" s="335">
+      <c r="Z85" s="374">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="AA85" s="337">
+      <c r="AA85" s="376">
         <f t="shared" si="13"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="AB85" s="318">
+      <c r="AB85" s="356">
         <f t="shared" si="13"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="AC85" s="320" t="e">
+      <c r="AC85" s="357" t="e">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="AD85" s="316"/>
-      <c r="AE85" s="316"/>
+      <c r="AD85" s="355"/>
+      <c r="AE85" s="355"/>
     </row>
     <row r="86" spans="1:31" ht="8.25" customHeight="1" thickBot="1">
       <c r="A86" s="13"/>
-      <c r="N86" s="328"/>
-      <c r="O86" s="329"/>
-      <c r="P86" s="329"/>
-      <c r="Q86" s="329"/>
-      <c r="R86" s="329"/>
-      <c r="S86" s="329"/>
-      <c r="T86" s="329"/>
-      <c r="U86" s="329"/>
-      <c r="V86" s="329"/>
-      <c r="W86" s="330"/>
-      <c r="X86" s="332"/>
-      <c r="Y86" s="334"/>
-      <c r="Z86" s="336"/>
+      <c r="N86" s="367"/>
+      <c r="O86" s="368"/>
+      <c r="P86" s="368"/>
+      <c r="Q86" s="368"/>
+      <c r="R86" s="368"/>
+      <c r="S86" s="368"/>
+      <c r="T86" s="368"/>
+      <c r="U86" s="368"/>
+      <c r="V86" s="368"/>
+      <c r="W86" s="369"/>
+      <c r="X86" s="371"/>
+      <c r="Y86" s="373"/>
+      <c r="Z86" s="375"/>
       <c r="AA86" s="338"/>
-      <c r="AB86" s="319"/>
-      <c r="AC86" s="321"/>
-      <c r="AD86" s="317"/>
-      <c r="AE86" s="317"/>
+      <c r="AB86" s="340"/>
+      <c r="AC86" s="342"/>
+      <c r="AD86" s="343"/>
+      <c r="AE86" s="343"/>
     </row>
     <row r="87" spans="1:31" ht="15.75" thickBot="1">
       <c r="A87" s="13"/>
-      <c r="N87" s="305" t="s">
+      <c r="N87" s="344" t="s">
         <v>28</v>
       </c>
-      <c r="O87" s="306"/>
-      <c r="P87" s="306"/>
-      <c r="Q87" s="306"/>
-      <c r="R87" s="306"/>
-      <c r="S87" s="306"/>
-      <c r="T87" s="306"/>
-      <c r="U87" s="306"/>
-      <c r="V87" s="306"/>
-      <c r="W87" s="307"/>
-      <c r="X87" s="342">
+      <c r="O87" s="345"/>
+      <c r="P87" s="345"/>
+      <c r="Q87" s="345"/>
+      <c r="R87" s="345"/>
+      <c r="S87" s="345"/>
+      <c r="T87" s="345"/>
+      <c r="U87" s="345"/>
+      <c r="V87" s="345"/>
+      <c r="W87" s="346"/>
+      <c r="X87" s="331">
         <f t="shared" ref="X87:AC87" si="14">COUNTIF(X13:X77,"&gt;=" &amp;X85)</f>
         <v>59</v>
       </c>
-      <c r="Y87" s="344">
+      <c r="Y87" s="333">
         <f t="shared" si="14"/>
         <v>58</v>
       </c>
-      <c r="Z87" s="346">
+      <c r="Z87" s="335">
         <f t="shared" si="14"/>
         <v>48</v>
       </c>
-      <c r="AA87" s="348">
+      <c r="AA87" s="337">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="AB87" s="349">
+      <c r="AB87" s="339">
         <f t="shared" si="14"/>
         <v>37</v>
       </c>
-      <c r="AC87" s="350">
+      <c r="AC87" s="341">
         <f t="shared" si="14"/>
         <v>65</v>
       </c>
-      <c r="AD87" s="317"/>
-      <c r="AE87" s="317"/>
+      <c r="AD87" s="343"/>
+      <c r="AE87" s="343"/>
     </row>
     <row r="88" spans="1:31" ht="9" customHeight="1" thickBot="1">
-      <c r="N88" s="308"/>
-      <c r="O88" s="309"/>
-      <c r="P88" s="309"/>
-      <c r="Q88" s="309"/>
-      <c r="R88" s="309"/>
-      <c r="S88" s="309"/>
-      <c r="T88" s="309"/>
-      <c r="U88" s="309"/>
-      <c r="V88" s="309"/>
-      <c r="W88" s="310"/>
-      <c r="X88" s="343"/>
-      <c r="Y88" s="345"/>
-      <c r="Z88" s="347"/>
+      <c r="N88" s="347"/>
+      <c r="O88" s="348"/>
+      <c r="P88" s="348"/>
+      <c r="Q88" s="348"/>
+      <c r="R88" s="348"/>
+      <c r="S88" s="348"/>
+      <c r="T88" s="348"/>
+      <c r="U88" s="348"/>
+      <c r="V88" s="348"/>
+      <c r="W88" s="349"/>
+      <c r="X88" s="332"/>
+      <c r="Y88" s="334"/>
+      <c r="Z88" s="336"/>
       <c r="AA88" s="338"/>
-      <c r="AB88" s="319"/>
-      <c r="AC88" s="321"/>
-      <c r="AD88" s="317"/>
-      <c r="AE88" s="317"/>
+      <c r="AB88" s="340"/>
+      <c r="AC88" s="342"/>
+      <c r="AD88" s="343"/>
+      <c r="AE88" s="343"/>
     </row>
     <row r="91" spans="1:31" ht="15.75" thickBot="1"/>
     <row r="92" spans="1:31" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B92" s="363" t="s">
+      <c r="B92" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="C92" s="364"/>
-      <c r="D92" s="364"/>
-      <c r="E92" s="365"/>
-      <c r="F92" s="351" t="s">
+      <c r="C92" s="323"/>
+      <c r="D92" s="323"/>
+      <c r="E92" s="324"/>
+      <c r="F92" s="310" t="s">
         <v>38</v>
       </c>
-      <c r="G92" s="351"/>
-      <c r="H92" s="352"/>
+      <c r="G92" s="310"/>
+      <c r="H92" s="311"/>
       <c r="I92" s="273" t="s">
         <v>39</v>
       </c>
       <c r="J92" s="274"/>
     </row>
     <row r="93" spans="1:31">
-      <c r="B93" s="354" t="s">
+      <c r="B93" s="313" t="s">
         <v>35</v>
       </c>
-      <c r="C93" s="357" t="s">
+      <c r="C93" s="316" t="s">
         <v>44</v>
       </c>
-      <c r="D93" s="357"/>
-      <c r="E93" s="358"/>
-      <c r="F93" s="366">
+      <c r="D93" s="316"/>
+      <c r="E93" s="317"/>
+      <c r="F93" s="325">
         <v>66</v>
       </c>
-      <c r="G93" s="357"/>
+      <c r="G93" s="316"/>
       <c r="H93" s="18">
         <f>0.2*F93</f>
         <v>13.200000000000001</v>
@@ -12943,14 +12943,14 @@
       <c r="J93" s="276"/>
     </row>
     <row r="94" spans="1:31">
-      <c r="B94" s="355"/>
-      <c r="C94" s="359" t="s">
+      <c r="B94" s="314"/>
+      <c r="C94" s="318" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="359"/>
-      <c r="E94" s="360"/>
-      <c r="F94" s="367"/>
-      <c r="G94" s="359"/>
+      <c r="D94" s="318"/>
+      <c r="E94" s="319"/>
+      <c r="F94" s="326"/>
+      <c r="G94" s="318"/>
       <c r="H94" s="19">
         <f>0.4*F93</f>
         <v>26.400000000000002</v>
@@ -12961,14 +12961,14 @@
       <c r="J94" s="278"/>
     </row>
     <row r="95" spans="1:31" ht="15.75" thickBot="1">
-      <c r="B95" s="356"/>
-      <c r="C95" s="361" t="s">
+      <c r="B95" s="315"/>
+      <c r="C95" s="320" t="s">
         <v>37</v>
       </c>
-      <c r="D95" s="361"/>
-      <c r="E95" s="362"/>
-      <c r="F95" s="368"/>
-      <c r="G95" s="361"/>
+      <c r="D95" s="320"/>
+      <c r="E95" s="321"/>
+      <c r="F95" s="327"/>
+      <c r="G95" s="320"/>
       <c r="H95" s="20">
         <f>0.6*F93</f>
         <v>39.6</v>
@@ -12982,14 +12982,14 @@
       </c>
     </row>
     <row r="96" spans="1:31">
-      <c r="H96" s="353"/>
-      <c r="I96" s="353"/>
-      <c r="J96" s="353"/>
+      <c r="H96" s="312"/>
+      <c r="I96" s="312"/>
+      <c r="J96" s="312"/>
     </row>
     <row r="97" spans="3:31" ht="15.75" thickBot="1">
-      <c r="H97" s="353"/>
-      <c r="I97" s="353"/>
-      <c r="J97" s="353"/>
+      <c r="H97" s="312"/>
+      <c r="I97" s="312"/>
+      <c r="J97" s="312"/>
     </row>
     <row r="98" spans="3:31" ht="24" customHeight="1">
       <c r="C98" s="23" t="s">
@@ -13019,27 +13019,27 @@
         <v>40</v>
       </c>
       <c r="D99" s="27">
-        <f>IF(X87&gt;=$H95,3,IF(X87&gt;=$H94,2,IF(X87&gt;=$H93,1,0)))</f>
+        <f t="shared" ref="D99:I99" si="15">IF(X87&gt;=$H95,3,IF(X87&gt;=$H94,2,IF(X87&gt;=$H93,1,0)))</f>
         <v>3</v>
       </c>
       <c r="E99" s="27">
-        <f>IF(Y87&gt;=$H95,3,IF(Y87&gt;=$H94,2,IF(Y87&gt;=$H93,1,0)))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="F99" s="27">
-        <f>IF(Z87&gt;=$H95,3,IF(Z87&gt;=$H94,2,IF(Z87&gt;=$H93,1,0)))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="G99" s="27">
-        <f>IF(AA87&gt;=$H95,3,IF(AA87&gt;=$H94,2,IF(AA87&gt;=$H93,1,0)))</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H99" s="27">
-        <f>IF(AB87&gt;=$H95,3,IF(AB87&gt;=$H94,2,IF(AB87&gt;=$H93,1,0)))</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="I99" s="27">
-        <f>IF(AC87&gt;=$H95,3,IF(AC87&gt;=$H94,2,IF(AC87&gt;=$H93,1,0)))</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
@@ -13080,24 +13080,15 @@
   </sheetData>
   <sheetProtection password="CF0F" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="43">
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F93:G95"/>
-    <mergeCell ref="AD9:AE11"/>
-    <mergeCell ref="X87:X88"/>
-    <mergeCell ref="Y87:Y88"/>
-    <mergeCell ref="Z87:Z88"/>
-    <mergeCell ref="AA87:AA88"/>
-    <mergeCell ref="AB87:AB88"/>
-    <mergeCell ref="AC87:AC88"/>
-    <mergeCell ref="AD87:AD88"/>
-    <mergeCell ref="AE87:AE88"/>
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="D8:L8"/>
     <mergeCell ref="N87:W88"/>
     <mergeCell ref="X8:X11"/>
     <mergeCell ref="Y8:Y11"/>
@@ -13114,15 +13105,24 @@
     <mergeCell ref="Y85:Y86"/>
     <mergeCell ref="Z85:Z86"/>
     <mergeCell ref="AA85:AA86"/>
-    <mergeCell ref="N8:W8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="AD9:AE11"/>
+    <mergeCell ref="X87:X88"/>
+    <mergeCell ref="Y87:Y88"/>
+    <mergeCell ref="Z87:Z88"/>
+    <mergeCell ref="AA87:AA88"/>
+    <mergeCell ref="AB87:AB88"/>
+    <mergeCell ref="AC87:AC88"/>
+    <mergeCell ref="AD87:AD88"/>
+    <mergeCell ref="AE87:AE88"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F93:G95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" fitToHeight="5" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
@@ -13155,13 +13155,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="20.25">
-      <c r="B1" s="385" t="s">
+      <c r="B1" s="380" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
+      <c r="E1" s="380"/>
+      <c r="F1" s="380"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -13337,41 +13337,41 @@
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="304" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="388" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="302" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="388" t="s">
+      <c r="B9" s="379" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="383" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="377" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="383" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B10" s="304"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="302"/>
-      <c r="E10" s="389"/>
+      <c r="B10" s="379"/>
+      <c r="C10" s="384"/>
+      <c r="D10" s="377"/>
+      <c r="E10" s="384"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B11" s="304"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="389"/>
+      <c r="B11" s="379"/>
+      <c r="C11" s="384"/>
+      <c r="D11" s="377"/>
+      <c r="E11" s="384"/>
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B12" s="304"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="302"/>
-      <c r="E12" s="389"/>
+      <c r="B12" s="379"/>
+      <c r="C12" s="384"/>
+      <c r="D12" s="377"/>
+      <c r="E12" s="384"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B13" s="304"/>
-      <c r="C13" s="390"/>
-      <c r="D13" s="302"/>
+      <c r="B13" s="379"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="377"/>
       <c r="E13" s="188">
         <v>70</v>
       </c>
@@ -14304,7 +14304,7 @@
       <c r="D80" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="386">
+      <c r="E80" s="381">
         <f>D81*E13/100</f>
         <v>23.407999999999998</v>
       </c>
@@ -14313,7 +14313,7 @@
       <c r="D81" s="239">
         <v>33.44</v>
       </c>
-      <c r="E81" s="387"/>
+      <c r="E81" s="382"/>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="D82" s="53" t="s">
@@ -14337,30 +14337,30 @@
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="86" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A86" s="372" t="s">
+      <c r="A86" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="373"/>
-      <c r="C86" s="373"/>
-      <c r="D86" s="374"/>
-      <c r="E86" s="351" t="s">
+      <c r="B86" s="389"/>
+      <c r="C86" s="389"/>
+      <c r="D86" s="390"/>
+      <c r="E86" s="310" t="s">
         <v>38</v>
       </c>
-      <c r="F86" s="352"/>
+      <c r="F86" s="311"/>
       <c r="G86" s="46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1">
-      <c r="A87" s="375" t="s">
+      <c r="A87" s="391" t="s">
         <v>35</v>
       </c>
-      <c r="B87" s="378" t="s">
+      <c r="B87" s="394" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="378"/>
-      <c r="D87" s="379"/>
-      <c r="E87" s="380">
+      <c r="C87" s="394"/>
+      <c r="D87" s="395"/>
+      <c r="E87" s="396">
         <v>66</v>
       </c>
       <c r="F87" s="50">
@@ -14372,13 +14372,13 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="376"/>
-      <c r="B88" s="359" t="s">
+      <c r="A88" s="392"/>
+      <c r="B88" s="318" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="359"/>
-      <c r="D88" s="360"/>
-      <c r="E88" s="381"/>
+      <c r="C88" s="318"/>
+      <c r="D88" s="319"/>
+      <c r="E88" s="397"/>
       <c r="F88" s="19">
         <f>0.65*$E87</f>
         <v>42.9</v>
@@ -14388,13 +14388,13 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A89" s="377"/>
-      <c r="B89" s="361" t="s">
+      <c r="A89" s="393"/>
+      <c r="B89" s="320" t="s">
         <v>54</v>
       </c>
-      <c r="C89" s="361"/>
-      <c r="D89" s="362"/>
-      <c r="E89" s="382"/>
+      <c r="C89" s="320"/>
+      <c r="D89" s="321"/>
+      <c r="E89" s="398"/>
       <c r="F89" s="51">
         <f>0.75*$E87</f>
         <v>49.5</v>
@@ -14405,10 +14405,10 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="91" spans="1:8" ht="71.25" customHeight="1">
-      <c r="A91" s="383" t="s">
+      <c r="A91" s="399" t="s">
         <v>51</v>
       </c>
-      <c r="B91" s="384"/>
+      <c r="B91" s="400"/>
       <c r="C91" s="24" t="s">
         <v>25</v>
       </c>
@@ -14429,10 +14429,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="39" customHeight="1" thickBot="1">
-      <c r="A92" s="370" t="s">
+      <c r="A92" s="386" t="s">
         <v>52</v>
       </c>
-      <c r="B92" s="371"/>
+      <c r="B92" s="387"/>
       <c r="C92" s="27">
         <f>IF(E82&gt;=$F89,3,IF(E82&gt;=$F88,2,IF(E82&gt;=$F87,1,0)))</f>
         <v>3</v>
@@ -14476,12 +14476,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="15">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E12"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="A86:D86"/>
@@ -14491,6 +14485,12 @@
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="E87:E89"/>
     <mergeCell ref="A91:B91"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E24" r:id="rId1" display="41@"/>
@@ -14511,8 +14511,8 @@
   </sheetPr>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14609,53 +14609,53 @@
     </row>
     <row r="8" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="304" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="388" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="391" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="388" t="s">
+      <c r="B9" s="379" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="383" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="418" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="383" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="393" t="s">
+      <c r="F9" s="419" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="388" t="s">
+      <c r="G9" s="383" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="304"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="391"/>
-      <c r="E10" s="389"/>
-      <c r="F10" s="394"/>
-      <c r="G10" s="389"/>
+      <c r="B10" s="379"/>
+      <c r="C10" s="384"/>
+      <c r="D10" s="418"/>
+      <c r="E10" s="384"/>
+      <c r="F10" s="420"/>
+      <c r="G10" s="384"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="304"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="391"/>
-      <c r="E11" s="389"/>
-      <c r="F11" s="394"/>
-      <c r="G11" s="389"/>
+      <c r="B11" s="379"/>
+      <c r="C11" s="384"/>
+      <c r="D11" s="418"/>
+      <c r="E11" s="384"/>
+      <c r="F11" s="420"/>
+      <c r="G11" s="384"/>
     </row>
     <row r="12" spans="2:8" ht="42" customHeight="1" thickBot="1">
-      <c r="B12" s="304"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="391"/>
-      <c r="E12" s="392"/>
-      <c r="F12" s="395"/>
-      <c r="G12" s="392"/>
+      <c r="B12" s="379"/>
+      <c r="C12" s="384"/>
+      <c r="D12" s="418"/>
+      <c r="E12" s="415"/>
+      <c r="F12" s="421"/>
+      <c r="G12" s="415"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B13" s="304"/>
-      <c r="C13" s="390"/>
-      <c r="D13" s="391"/>
+      <c r="B13" s="379"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="418"/>
       <c r="E13" s="56">
         <v>10</v>
       </c>
@@ -14679,13 +14679,13 @@
         <v>ADNAK TEJASWINI VILAS</v>
       </c>
       <c r="E14" s="240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="240">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G14" s="240">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -14701,13 +14701,13 @@
         <v>ANDHARE PRIYANKA BAPU</v>
       </c>
       <c r="E15" s="240">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="240">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G15" s="240">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -14723,13 +14723,13 @@
         <v>BALURE PRERANA KESHAV</v>
       </c>
       <c r="E16" s="240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="240">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G16" s="240">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -14748,7 +14748,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="240">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G17" s="240">
         <v>23</v>
@@ -14770,10 +14770,10 @@
         <v>10</v>
       </c>
       <c r="F18" s="240">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G18" s="240">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -14792,7 +14792,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="240">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G19" s="240">
         <v>24</v>
@@ -14814,10 +14814,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="240">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G20" s="240">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -14833,13 +14833,13 @@
         <v>BIRAJDAR SNEHAL SATISH</v>
       </c>
       <c r="E21" s="240">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="240">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G21" s="240">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -14858,10 +14858,10 @@
         <v>10</v>
       </c>
       <c r="F22" s="240">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G22" s="240">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:7">
@@ -14877,13 +14877,13 @@
         <v>CHAFEKARANDE AKANKSHA B.</v>
       </c>
       <c r="E23" s="240">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="240">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G23" s="240">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -14899,13 +14899,13 @@
         <v>CHANDE ANKITA RAJKUMAR</v>
       </c>
       <c r="E24" s="240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="240">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G24" s="240">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -14921,13 +14921,13 @@
         <v>CHATAP PARVATI SHRIHARI</v>
       </c>
       <c r="E25" s="240">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="240">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" s="240">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -14943,10 +14943,10 @@
         <v>DHOTRE SWETA SANJAY</v>
       </c>
       <c r="E26" s="240">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" s="240">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G26" s="240">
         <v>21</v>
@@ -14965,13 +14965,13 @@
         <v>DHUMAL KAVITA KASHINATH</v>
       </c>
       <c r="E27" s="240">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F27" s="240">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G27" s="240">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -14987,13 +14987,13 @@
         <v>DIGGIKAR BHAVANA VIJAY</v>
       </c>
       <c r="E28" s="240">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="240">
+        <v>18</v>
+      </c>
+      <c r="G28" s="240">
         <v>15</v>
-      </c>
-      <c r="G28" s="240">
-        <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -15009,13 +15009,13 @@
         <v>GAIKWAD SHILPA PRALHAD</v>
       </c>
       <c r="E29" s="240">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" s="240">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G29" s="240">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -15031,13 +15031,13 @@
         <v>HANGE VAJRASHRI MADHAV</v>
       </c>
       <c r="E30" s="240">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F30" s="240">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G30" s="240">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -15053,13 +15053,13 @@
         <v>IGAVE ANJALI BIBHISHAN</v>
       </c>
       <c r="E31" s="240">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31" s="240">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G31" s="240">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -15078,10 +15078,10 @@
         <v>10</v>
       </c>
       <c r="F32" s="240">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G32" s="240">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -15100,10 +15100,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="240">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G33" s="240">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -15119,13 +15119,13 @@
         <v>JOSHI SANJIVANI SANJAY</v>
       </c>
       <c r="E34" s="240">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" s="240">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G34" s="240">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -15141,10 +15141,10 @@
         <v>KADAM PUNAM SHRIHARI</v>
       </c>
       <c r="E35" s="240">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="240">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G35" s="240">
         <v>22</v>
@@ -15166,10 +15166,10 @@
         <v>8</v>
       </c>
       <c r="F36" s="240">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G36" s="240">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -15188,10 +15188,10 @@
         <v>8</v>
       </c>
       <c r="F37" s="240">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G37" s="240">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -15210,10 +15210,10 @@
         <v>10</v>
       </c>
       <c r="F38" s="240">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G38" s="240">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -15229,13 +15229,13 @@
         <v>KOMPALE MANSI BALAJI</v>
       </c>
       <c r="E39" s="240">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39" s="240">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G39" s="240">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -15254,7 +15254,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="240">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G40" s="240">
         <v>24</v>
@@ -15273,13 +15273,13 @@
         <v>MAMDGE ROHINI TUKARAM</v>
       </c>
       <c r="E41" s="240">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41" s="240">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G41" s="240">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -15295,10 +15295,10 @@
         <v>MANE SAKSHI SANTOSH</v>
       </c>
       <c r="E42" s="240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="240">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G42" s="240">
         <v>21</v>
@@ -15317,13 +15317,13 @@
         <v>MATHPATI DIVYA BALAJI</v>
       </c>
       <c r="E43" s="240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="240">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G43" s="240">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -15339,13 +15339,13 @@
         <v>MORE SHITAL BHARAT</v>
       </c>
       <c r="E44" s="240">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F44" s="240">
+        <v>20</v>
+      </c>
+      <c r="G44" s="240">
         <v>19</v>
-      </c>
-      <c r="G44" s="240">
-        <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -15364,10 +15364,10 @@
         <v>9</v>
       </c>
       <c r="F45" s="240">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G45" s="240">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:7">
@@ -15386,10 +15386,10 @@
         <v>8</v>
       </c>
       <c r="F46" s="240">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G46" s="240">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -15408,7 +15408,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="240">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G47" s="240">
         <v>20</v>
@@ -15427,13 +15427,13 @@
         <v>PATE ASHVINI ARVIND</v>
       </c>
       <c r="E48" s="240">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F48" s="240">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G48" s="240">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="2:7">
@@ -15449,13 +15449,13 @@
         <v>PATIL ADITI SANJAY</v>
       </c>
       <c r="E49" s="240">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F49" s="240">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G49" s="240">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:7">
@@ -15471,13 +15471,13 @@
         <v>PATIL MANSI SANJAY</v>
       </c>
       <c r="E50" s="240">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F50" s="240">
+        <v>16</v>
+      </c>
+      <c r="G50" s="240">
         <v>15</v>
-      </c>
-      <c r="G50" s="240">
-        <v>19</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -15515,10 +15515,10 @@
         <v>PATIL VAISHNAVI RAYABA</v>
       </c>
       <c r="E52" s="240">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F52" s="240">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G52" s="240">
         <v>20</v>
@@ -15537,13 +15537,13 @@
         <v>PAWAR SAKSHI SHARAD</v>
       </c>
       <c r="E53" s="240">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F53" s="240">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" s="240">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -15559,10 +15559,10 @@
         <v xml:space="preserve">POTDAR VAISHNAVI S </v>
       </c>
       <c r="E54" s="240">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F54" s="240">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G54" s="240">
         <v>21</v>
@@ -15584,10 +15584,10 @@
         <v>8</v>
       </c>
       <c r="F55" s="240">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G55" s="240">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -15606,10 +15606,10 @@
         <v>8</v>
       </c>
       <c r="F56" s="240">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G56" s="240">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -15625,10 +15625,10 @@
         <v xml:space="preserve">SABLE SHITAL S </v>
       </c>
       <c r="E57" s="240">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="240">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G57" s="240">
         <v>19</v>
@@ -15650,7 +15650,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="240">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G58" s="240">
         <v>21</v>
@@ -15669,13 +15669,13 @@
         <v xml:space="preserve">SAVANT VAISHNAVI B </v>
       </c>
       <c r="E59" s="240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="240">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G59" s="240">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -15694,10 +15694,10 @@
         <v>9</v>
       </c>
       <c r="F60" s="240">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G60" s="240">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -15716,10 +15716,10 @@
         <v>10</v>
       </c>
       <c r="F61" s="240">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G61" s="240">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:7">
@@ -15735,13 +15735,13 @@
         <v xml:space="preserve">SHINDE ADITI K </v>
       </c>
       <c r="E62" s="240">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" s="240">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G62" s="240">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -15760,7 +15760,7 @@
         <v>9</v>
       </c>
       <c r="F63" s="240">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G63" s="240">
         <v>20</v>
@@ -15779,13 +15779,13 @@
         <v xml:space="preserve">SURYAWANSHI PRANJALI S </v>
       </c>
       <c r="E64" s="240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" s="240">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G64" s="240">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -15801,13 +15801,13 @@
         <v xml:space="preserve">TADLAPURE NEHA H </v>
       </c>
       <c r="E65" s="240">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" s="240">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G65" s="240">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="2:7">
@@ -15826,10 +15826,10 @@
         <v>9</v>
       </c>
       <c r="F66" s="240">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G66" s="240">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="2:7">
@@ -15848,10 +15848,10 @@
         <v>9</v>
       </c>
       <c r="F67" s="240">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G67" s="240">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="2:7">
@@ -15867,13 +15867,13 @@
         <v>TONDARE SHRADDHA D.</v>
       </c>
       <c r="E68" s="240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" s="240">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G68" s="240">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="2:7">
@@ -15889,13 +15889,13 @@
         <v xml:space="preserve">WAGHMARE RUKMIN S </v>
       </c>
       <c r="E69" s="240">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" s="240">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G69" s="240">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="2:7">
@@ -15911,10 +15911,10 @@
         <v xml:space="preserve">JOSHI SAKSHI U </v>
       </c>
       <c r="E70" s="240">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F70" s="240">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G70" s="240">
         <v>21</v>
@@ -15933,13 +15933,13 @@
         <v xml:space="preserve">BIRADAR VAISHNAVI S </v>
       </c>
       <c r="E71" s="240">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F71" s="240">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G71" s="240">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="2:7">
@@ -15955,13 +15955,13 @@
         <v xml:space="preserve">MALBHAGE ASHVINI G </v>
       </c>
       <c r="E72" s="240">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F72" s="240">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G72" s="240">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="2:7">
@@ -15980,10 +15980,10 @@
         <v>7</v>
       </c>
       <c r="F73" s="240">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G73" s="240">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="2:7">
@@ -15999,13 +15999,13 @@
         <v>Panchal Punam Vishnu</v>
       </c>
       <c r="E74" s="240">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F74" s="240">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G74" s="240">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="2:7">
@@ -16021,13 +16021,13 @@
         <v>Patil Sakshi Bhagwat</v>
       </c>
       <c r="E75" s="240">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F75" s="240">
         <v>16</v>
       </c>
       <c r="G75" s="240">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="2:7">
@@ -16043,13 +16043,13 @@
         <v>Deshpande Nikita S</v>
       </c>
       <c r="E76" s="240">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F76" s="240">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G76" s="240">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="2:7">
@@ -16065,13 +16065,13 @@
         <v>Kharte Sneha Jotiram</v>
       </c>
       <c r="E77" s="240">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F77" s="240">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G77" s="240">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -16087,13 +16087,13 @@
         <v>Fulari  Nikita Sangappa</v>
       </c>
       <c r="E78" s="240">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F78" s="240">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G78" s="240">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="14.25" customHeight="1">
@@ -16109,13 +16109,13 @@
         <v>Gaikwad Mohini Y.</v>
       </c>
       <c r="E79" s="240">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" s="240">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G79" s="240">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="15.75" thickBot="1">
@@ -16127,27 +16127,27 @@
       <c r="G80" s="12"/>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1">
-      <c r="D81" s="396" t="s">
+      <c r="D81" s="416" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="396">
+      <c r="E81" s="416">
         <f>ROUNDUP(0.6*E13,1)</f>
         <v>6</v>
       </c>
-      <c r="F81" s="396">
+      <c r="F81" s="416">
         <f>ROUNDUP(0.6*F13,1)</f>
         <v>15</v>
       </c>
-      <c r="G81" s="396">
+      <c r="G81" s="416">
         <f>ROUNDUP(0.6*G13,1)</f>
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D82" s="397"/>
-      <c r="E82" s="397"/>
-      <c r="F82" s="397"/>
-      <c r="G82" s="397"/>
+      <c r="D82" s="417"/>
+      <c r="E82" s="417"/>
+      <c r="F82" s="417"/>
+      <c r="G82" s="417"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" thickBot="1">
       <c r="D83" s="53" t="s">
@@ -16155,41 +16155,41 @@
       </c>
       <c r="E83" s="54">
         <f>COUNTIF(E14:E80,"&gt;=" &amp;E81)</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F83" s="54">
         <f>COUNTIF(F14:F80,"&gt;=" &amp;F81)</f>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G83" s="54">
         <f>COUNTIF(G14:G80,"&gt;=" &amp;G81)</f>
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="86" spans="1:8" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B86" s="372" t="s">
+      <c r="B86" s="388" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="373"/>
-      <c r="D86" s="374"/>
-      <c r="E86" s="351" t="s">
+      <c r="C86" s="389"/>
+      <c r="D86" s="390"/>
+      <c r="E86" s="310" t="s">
         <v>38</v>
       </c>
-      <c r="F86" s="352"/>
+      <c r="F86" s="311"/>
       <c r="G86" s="46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="B87" s="375" t="s">
+      <c r="B87" s="391" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="406" t="s">
+      <c r="C87" s="409" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="407"/>
-      <c r="E87" s="380">
+      <c r="D87" s="410"/>
+      <c r="E87" s="396">
         <v>66</v>
       </c>
       <c r="F87" s="50">
@@ -16201,12 +16201,12 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="B88" s="376"/>
-      <c r="C88" s="408" t="s">
+      <c r="B88" s="392"/>
+      <c r="C88" s="411" t="s">
         <v>66</v>
       </c>
-      <c r="D88" s="409"/>
-      <c r="E88" s="381"/>
+      <c r="D88" s="412"/>
+      <c r="E88" s="397"/>
       <c r="F88" s="19">
         <f>0.7*$E87</f>
         <v>46.199999999999996</v>
@@ -16216,12 +16216,12 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1">
-      <c r="B89" s="377"/>
-      <c r="C89" s="410" t="s">
+      <c r="B89" s="393"/>
+      <c r="C89" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="D89" s="411"/>
-      <c r="E89" s="382"/>
+      <c r="D89" s="414"/>
+      <c r="E89" s="398"/>
       <c r="F89" s="51">
         <f>0.8*$E87</f>
         <v>52.800000000000004</v>
@@ -16232,10 +16232,10 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="91" spans="1:8" ht="33" customHeight="1" thickBot="1">
-      <c r="A91" s="404" t="s">
+      <c r="A91" s="407" t="s">
         <v>67</v>
       </c>
-      <c r="B91" s="405"/>
+      <c r="B91" s="408"/>
       <c r="C91" s="57" t="s">
         <v>25</v>
       </c>
@@ -16256,10 +16256,10 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A92" s="400" t="s">
+      <c r="A92" s="403" t="s">
         <v>68</v>
       </c>
-      <c r="B92" s="401"/>
+      <c r="B92" s="404"/>
       <c r="C92" s="59">
         <f>IF(E83&gt;=$F89,3,IF(E83&gt;=$F88,2,IF(E83&gt;=$F87,1,0)))</f>
         <v>3</v>
@@ -16286,40 +16286,40 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A93" s="398" t="s">
+      <c r="A93" s="401" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="399"/>
+      <c r="B93" s="402"/>
       <c r="C93" s="60">
         <f>IF(F83&gt;=$F89,3,IF(F83&gt;=$F88,2,IF(F83&gt;=$F87,1,0)))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" s="60">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93" s="60">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" s="60">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G93" s="60">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93" s="62">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A94" s="402" t="s">
+      <c r="A94" s="405" t="s">
         <v>70</v>
       </c>
-      <c r="B94" s="403"/>
+      <c r="B94" s="406"/>
       <c r="C94" s="27">
         <f>IF(G83&gt;=$F89,3,IF(G83&gt;=$F88,2,IF(G83&gt;=$F87,1,0)))</f>
         <v>3</v>
@@ -16373,6 +16373,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A94:B94"/>
@@ -16384,16 +16394,6 @@
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -16502,41 +16502,41 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="304" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="388" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="391" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="388" t="s">
+      <c r="B10" s="379" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="383" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="418" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="383" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B11" s="304"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="391"/>
-      <c r="E11" s="412"/>
+      <c r="B11" s="379"/>
+      <c r="C11" s="384"/>
+      <c r="D11" s="418"/>
+      <c r="E11" s="422"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B12" s="304"/>
-      <c r="C12" s="389"/>
-      <c r="D12" s="391"/>
-      <c r="E12" s="412"/>
+      <c r="B12" s="379"/>
+      <c r="C12" s="384"/>
+      <c r="D12" s="418"/>
+      <c r="E12" s="422"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B13" s="304"/>
-      <c r="C13" s="389"/>
-      <c r="D13" s="391"/>
-      <c r="E13" s="413"/>
+      <c r="B13" s="379"/>
+      <c r="C13" s="384"/>
+      <c r="D13" s="418"/>
+      <c r="E13" s="423"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B14" s="304"/>
-      <c r="C14" s="390"/>
-      <c r="D14" s="391"/>
+      <c r="B14" s="379"/>
+      <c r="C14" s="385"/>
+      <c r="D14" s="418"/>
       <c r="E14" s="70">
         <v>5</v>
       </c>
@@ -17519,57 +17519,57 @@
     </row>
     <row r="85" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="86" spans="1:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A86" s="372" t="s">
+      <c r="A86" s="388" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="373"/>
-      <c r="C86" s="373"/>
-      <c r="D86" s="374"/>
+      <c r="B86" s="389"/>
+      <c r="C86" s="389"/>
+      <c r="D86" s="390"/>
       <c r="E86" s="46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A87" s="375" t="s">
+      <c r="A87" s="391" t="s">
         <v>35</v>
       </c>
-      <c r="B87" s="406" t="s">
+      <c r="B87" s="409" t="s">
         <v>158</v>
       </c>
-      <c r="C87" s="416"/>
-      <c r="D87" s="417"/>
+      <c r="C87" s="426"/>
+      <c r="D87" s="427"/>
       <c r="E87" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="376"/>
-      <c r="B88" s="408" t="s">
+      <c r="A88" s="392"/>
+      <c r="B88" s="411" t="s">
         <v>159</v>
       </c>
-      <c r="C88" s="415"/>
-      <c r="D88" s="409"/>
+      <c r="C88" s="425"/>
+      <c r="D88" s="412"/>
       <c r="E88" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A89" s="377"/>
-      <c r="B89" s="410" t="s">
+      <c r="A89" s="393"/>
+      <c r="B89" s="413" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="414"/>
-      <c r="D89" s="411"/>
+      <c r="C89" s="424"/>
+      <c r="D89" s="414"/>
       <c r="E89" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="91" spans="1:7" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A91" s="404" t="s">
+      <c r="A91" s="407" t="s">
         <v>67</v>
       </c>
-      <c r="B91" s="405"/>
+      <c r="B91" s="408"/>
       <c r="C91" s="57" t="s">
         <v>25</v>
       </c>
@@ -17587,10 +17587,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="30" customHeight="1">
-      <c r="A92" s="383" t="s">
+      <c r="A92" s="399" t="s">
         <v>166</v>
       </c>
-      <c r="B92" s="384"/>
+      <c r="B92" s="400"/>
       <c r="C92" s="59">
         <f>IF(E82&gt;=80,3,IF(E82&gt;65,2,IF(E82&gt;=40,1,0)))</f>
         <v>3</v>
@@ -17706,34 +17706,34 @@
       <c r="P5" s="29"/>
     </row>
     <row r="6" spans="2:16" ht="16.5" thickBot="1">
-      <c r="B6" s="426" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="429" t="s">
+      <c r="B6" s="436" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="439" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="430"/>
-      <c r="E6" s="418" t="s">
+      <c r="D6" s="440"/>
+      <c r="E6" s="428" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="435"/>
-      <c r="G6" s="435"/>
-      <c r="H6" s="435"/>
-      <c r="I6" s="435"/>
-      <c r="J6" s="435"/>
-      <c r="K6" s="435"/>
-      <c r="L6" s="435"/>
-      <c r="M6" s="435"/>
-      <c r="N6" s="419"/>
-      <c r="O6" s="418" t="s">
+      <c r="F6" s="445"/>
+      <c r="G6" s="445"/>
+      <c r="H6" s="445"/>
+      <c r="I6" s="445"/>
+      <c r="J6" s="445"/>
+      <c r="K6" s="445"/>
+      <c r="L6" s="445"/>
+      <c r="M6" s="445"/>
+      <c r="N6" s="429"/>
+      <c r="O6" s="428" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="419"/>
+      <c r="P6" s="429"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B7" s="427"/>
-      <c r="C7" s="431"/>
-      <c r="D7" s="432"/>
+      <c r="B7" s="437"/>
+      <c r="C7" s="441"/>
+      <c r="D7" s="442"/>
       <c r="E7" s="95" t="s">
         <v>98</v>
       </c>
@@ -17772,9 +17772,9 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="57.75" thickBot="1">
-      <c r="B8" s="428"/>
-      <c r="C8" s="433"/>
-      <c r="D8" s="434"/>
+      <c r="B8" s="438"/>
+      <c r="C8" s="443"/>
+      <c r="D8" s="444"/>
       <c r="E8" s="96" t="s">
         <v>110</v>
       </c>
@@ -18095,11 +18095,11 @@
       </c>
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B15" s="423" t="s">
+      <c r="B15" s="433" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="424"/>
-      <c r="D15" s="425"/>
+      <c r="C15" s="434"/>
+      <c r="D15" s="435"/>
       <c r="E15" s="100">
         <f t="shared" ref="E15:G15" si="0">ROUNDUP(AVERAGE(E9:E14),2)</f>
         <v>3</v>
@@ -18150,11 +18150,11 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B16" s="420" t="s">
+      <c r="B16" s="430" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="421"/>
-      <c r="D16" s="422"/>
+      <c r="C16" s="431"/>
+      <c r="D16" s="432"/>
       <c r="E16" s="106">
         <f>ROUNDUP((E15*2.66)/3,2)</f>
         <v>2.66</v>
@@ -18205,11 +18205,11 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B17" s="420" t="s">
+      <c r="B17" s="430" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="421"/>
-      <c r="D17" s="422"/>
+      <c r="C17" s="431"/>
+      <c r="D17" s="432"/>
       <c r="E17" s="106">
         <f>ROUNDUP((E16/3)*100,2)</f>
         <v>88.67</v>
@@ -18347,49 +18347,49 @@
     </row>
     <row r="7" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="8" spans="2:10" ht="21.75" thickBot="1">
-      <c r="C8" s="446" t="s">
+      <c r="C8" s="448" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="447"/>
-      <c r="E8" s="447"/>
-      <c r="F8" s="447"/>
-      <c r="G8" s="447"/>
-      <c r="H8" s="447"/>
-      <c r="I8" s="447"/>
-      <c r="J8" s="448"/>
+      <c r="D8" s="449"/>
+      <c r="E8" s="449"/>
+      <c r="F8" s="449"/>
+      <c r="G8" s="449"/>
+      <c r="H8" s="449"/>
+      <c r="I8" s="449"/>
+      <c r="J8" s="450"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C9" s="449" t="s">
+      <c r="C9" s="451" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="450"/>
-      <c r="E9" s="450"/>
-      <c r="F9" s="450"/>
-      <c r="G9" s="450"/>
-      <c r="H9" s="451"/>
-      <c r="I9" s="452" t="s">
+      <c r="D9" s="452"/>
+      <c r="E9" s="452"/>
+      <c r="F9" s="452"/>
+      <c r="G9" s="452"/>
+      <c r="H9" s="453"/>
+      <c r="I9" s="454" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="453"/>
+      <c r="J9" s="455"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1">
-      <c r="C10" s="456" t="s">
+      <c r="C10" s="458" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="458" t="s">
+      <c r="D10" s="460" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="459"/>
-      <c r="F10" s="459"/>
-      <c r="G10" s="460"/>
+      <c r="E10" s="461"/>
+      <c r="F10" s="461"/>
+      <c r="G10" s="462"/>
       <c r="H10" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="454"/>
-      <c r="J10" s="455"/>
+      <c r="I10" s="456"/>
+      <c r="J10" s="457"/>
     </row>
     <row r="11" spans="2:10" ht="45.75" customHeight="1" thickBot="1">
-      <c r="C11" s="457"/>
+      <c r="C11" s="459"/>
       <c r="D11" s="80" t="s">
         <v>77</v>
       </c>
@@ -18405,10 +18405,10 @@
       <c r="H11" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="461" t="s">
+      <c r="I11" s="463" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="462"/>
+      <c r="J11" s="464"/>
     </row>
     <row r="12" spans="2:10">
       <c r="C12" s="86" t="s">
@@ -18420,7 +18420,7 @@
       </c>
       <c r="E12" s="74">
         <f>'CO_attain_MicroP_PR-TW_ESE'!C93</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="74">
         <f>'CO_attain_MicroP_PR-TW_ESE'!C92</f>
@@ -18434,11 +18434,11 @@
         <f>'CO_attainment for ESEBoard Exam'!C92</f>
         <v>3</v>
       </c>
-      <c r="I12" s="437">
+      <c r="I12" s="465">
         <f>'CO_attainment for Indirect'!C92</f>
         <v>3</v>
       </c>
-      <c r="J12" s="438"/>
+      <c r="J12" s="466"/>
     </row>
     <row r="13" spans="2:10">
       <c r="C13" s="87" t="s">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="E13" s="76">
         <f>$E12</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="76">
         <f>$F12</f>
@@ -18464,11 +18464,11 @@
         <f>$H12</f>
         <v>3</v>
       </c>
-      <c r="I13" s="444">
+      <c r="I13" s="446">
         <f>$I12</f>
         <v>3</v>
       </c>
-      <c r="J13" s="445"/>
+      <c r="J13" s="447"/>
     </row>
     <row r="14" spans="2:10">
       <c r="C14" s="87" t="s">
@@ -18480,7 +18480,7 @@
       </c>
       <c r="E14" s="76">
         <f>$E13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="76">
         <f>$F13</f>
@@ -18494,11 +18494,11 @@
         <f>$H13</f>
         <v>3</v>
       </c>
-      <c r="I14" s="444">
+      <c r="I14" s="446">
         <f t="shared" ref="I14:I17" si="0">$I13</f>
         <v>3</v>
       </c>
-      <c r="J14" s="445"/>
+      <c r="J14" s="447"/>
     </row>
     <row r="15" spans="2:10">
       <c r="C15" s="87" t="s">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="E15" s="76">
         <f>$E14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="76">
         <f>$F14</f>
@@ -18524,11 +18524,11 @@
         <f>$H14</f>
         <v>3</v>
       </c>
-      <c r="I15" s="444">
+      <c r="I15" s="446">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J15" s="445"/>
+      <c r="J15" s="447"/>
     </row>
     <row r="16" spans="2:10">
       <c r="C16" s="87" t="s">
@@ -18540,7 +18540,7 @@
       </c>
       <c r="E16" s="76">
         <f>$E15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="76">
         <f>$F15</f>
@@ -18554,11 +18554,11 @@
         <f>$H15</f>
         <v>3</v>
       </c>
-      <c r="I16" s="444">
+      <c r="I16" s="446">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J16" s="445"/>
+      <c r="J16" s="447"/>
     </row>
     <row r="17" spans="3:10" ht="15.75" thickBot="1">
       <c r="C17" s="88" t="s">
@@ -18570,7 +18570,7 @@
       </c>
       <c r="E17" s="78">
         <f>$E16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="78">
         <f>$F16</f>
@@ -18584,11 +18584,11 @@
         <f>$H16</f>
         <v>3</v>
       </c>
-      <c r="I17" s="444">
+      <c r="I17" s="446">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J17" s="445"/>
+      <c r="J17" s="447"/>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="86" t="s">
@@ -18600,7 +18600,7 @@
       </c>
       <c r="E18" s="74">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="74">
         <f t="shared" si="1"/>
@@ -18614,11 +18614,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I18" s="437">
+      <c r="I18" s="465">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J18" s="438"/>
+      <c r="J18" s="466"/>
     </row>
     <row r="19" spans="3:10" ht="27" customHeight="1">
       <c r="C19" s="94" t="s">
@@ -18639,10 +18639,10 @@
       <c r="H19" s="147">
         <v>60</v>
       </c>
-      <c r="I19" s="439">
+      <c r="I19" s="468">
         <v>100</v>
       </c>
-      <c r="J19" s="440"/>
+      <c r="J19" s="469"/>
     </row>
     <row r="20" spans="3:10" ht="31.5" customHeight="1" thickBot="1">
       <c r="C20" s="89" t="s">
@@ -18654,7 +18654,7 @@
       </c>
       <c r="E20" s="85">
         <f t="shared" ref="E20:J20" si="2">E18*E19/100</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F20" s="85">
         <f t="shared" si="2"/>
@@ -18668,26 +18668,26 @@
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="I20" s="441">
+      <c r="I20" s="470">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J20" s="442">
+      <c r="J20" s="471">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="48" customHeight="1" thickBot="1">
-      <c r="C21" s="443" t="s">
+      <c r="C21" s="472" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="443"/>
-      <c r="E21" s="443"/>
-      <c r="F21" s="443"/>
-      <c r="G21" s="443"/>
+      <c r="D21" s="472"/>
+      <c r="E21" s="472"/>
+      <c r="F21" s="472"/>
+      <c r="G21" s="472"/>
       <c r="H21" s="90">
         <f>SUM(D20:H20)</f>
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="I21" s="91" t="s">
         <v>93</v>
@@ -18698,13 +18698,13 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C22" s="443" t="s">
+      <c r="C22" s="472" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="443"/>
-      <c r="E22" s="443"/>
-      <c r="F22" s="443"/>
-      <c r="G22" s="443"/>
+      <c r="D22" s="472"/>
+      <c r="E22" s="472"/>
+      <c r="F22" s="472"/>
+      <c r="G22" s="472"/>
       <c r="H22" s="92">
         <v>0.8</v>
       </c>
@@ -18716,16 +18716,16 @@
       </c>
     </row>
     <row r="23" spans="3:10" ht="45" customHeight="1" thickBot="1">
-      <c r="C23" s="443" t="s">
+      <c r="C23" s="472" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="443"/>
-      <c r="E23" s="443"/>
-      <c r="F23" s="443"/>
-      <c r="G23" s="443"/>
+      <c r="D23" s="472"/>
+      <c r="E23" s="472"/>
+      <c r="F23" s="472"/>
+      <c r="G23" s="472"/>
       <c r="H23" s="93">
         <f>0.8*H21</f>
-        <v>2.2800000000000002</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="I23" s="91" t="s">
         <v>94</v>
@@ -18736,17 +18736,17 @@
       </c>
     </row>
     <row r="24" spans="3:10" ht="25.5" customHeight="1" thickBot="1">
-      <c r="C24" s="436" t="s">
+      <c r="C24" s="467" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="436"/>
-      <c r="E24" s="436"/>
-      <c r="F24" s="436"/>
-      <c r="G24" s="436"/>
-      <c r="H24" s="436"/>
+      <c r="D24" s="467"/>
+      <c r="E24" s="467"/>
+      <c r="F24" s="467"/>
+      <c r="G24" s="467"/>
+      <c r="H24" s="467"/>
       <c r="I24" s="111">
         <f>ROUNDUP(H23+J23,2)</f>
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="J24" s="112"/>
     </row>
@@ -18770,6 +18770,13 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="19">
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="C9:H9"/>
@@ -18782,13 +18789,6 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -18874,15 +18874,15 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="1"/>
-      <c r="C8" s="463" t="s">
+      <c r="C8" s="494" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="464"/>
-      <c r="E8" s="466" t="s">
+      <c r="D8" s="495"/>
+      <c r="E8" s="498" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="466"/>
-      <c r="G8" s="466"/>
+      <c r="F8" s="498"/>
+      <c r="G8" s="498"/>
       <c r="H8" s="154" t="s">
         <v>181</v>
       </c>
@@ -18892,14 +18892,14 @@
       <c r="J8" s="154" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="470" t="s">
+      <c r="K8" s="502" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="30.75" thickBot="1">
       <c r="B9" s="1"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="465"/>
+      <c r="C9" s="496"/>
+      <c r="D9" s="497"/>
       <c r="E9" s="176" t="s">
         <v>179</v>
       </c>
@@ -18918,18 +18918,18 @@
       <c r="J9" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="471"/>
+      <c r="K9" s="503"/>
     </row>
     <row r="10" spans="2:11" ht="19.5" customHeight="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="472" t="s">
+      <c r="C10" s="504" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="378"/>
-      <c r="E10" s="466">
+      <c r="D10" s="394"/>
+      <c r="E10" s="498">
         <v>20</v>
       </c>
-      <c r="F10" s="466"/>
+      <c r="F10" s="498"/>
       <c r="G10" s="154">
         <v>10</v>
       </c>
@@ -18949,15 +18949,15 @@
     </row>
     <row r="11" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="473" t="s">
+      <c r="C11" s="505" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="361"/>
-      <c r="E11" s="474">
+      <c r="D11" s="320"/>
+      <c r="E11" s="506">
         <f>(E10/$K10)*100</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="F11" s="475"/>
+      <c r="F11" s="507"/>
       <c r="G11" s="177">
         <f>(G10/$K10)*100</f>
         <v>6.666666666666667</v>
@@ -18986,33 +18986,33 @@
     </row>
     <row r="13" spans="2:11" ht="8.25" customHeight="1" thickBot="1"/>
     <row r="14" spans="2:11" ht="21.75" thickBot="1">
-      <c r="C14" s="467" t="s">
+      <c r="C14" s="499" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="468"/>
-      <c r="E14" s="468"/>
-      <c r="F14" s="468"/>
-      <c r="G14" s="468"/>
-      <c r="H14" s="468"/>
-      <c r="I14" s="468"/>
-      <c r="J14" s="469"/>
+      <c r="D14" s="500"/>
+      <c r="E14" s="500"/>
+      <c r="F14" s="500"/>
+      <c r="G14" s="500"/>
+      <c r="H14" s="500"/>
+      <c r="I14" s="500"/>
+      <c r="J14" s="501"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="C15" s="478" t="s">
+      <c r="C15" s="489" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="479"/>
-      <c r="E15" s="479"/>
-      <c r="F15" s="479"/>
-      <c r="G15" s="479"/>
-      <c r="H15" s="480"/>
-      <c r="I15" s="489" t="s">
+      <c r="D15" s="490"/>
+      <c r="E15" s="490"/>
+      <c r="F15" s="490"/>
+      <c r="G15" s="490"/>
+      <c r="H15" s="491"/>
+      <c r="I15" s="479" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="490"/>
+      <c r="J15" s="480"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="C16" s="481" t="s">
+      <c r="C16" s="492" t="s">
         <v>87</v>
       </c>
       <c r="D16" s="173"/>
@@ -19024,11 +19024,11 @@
       <c r="H16" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="491"/>
-      <c r="J16" s="492"/>
+      <c r="I16" s="481"/>
+      <c r="J16" s="482"/>
     </row>
     <row r="17" spans="3:10" ht="45.75" customHeight="1" thickBot="1">
-      <c r="C17" s="482"/>
+      <c r="C17" s="493"/>
       <c r="D17" s="150" t="s">
         <v>77</v>
       </c>
@@ -19044,10 +19044,10 @@
       <c r="H17" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="493" t="s">
+      <c r="I17" s="483" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="494"/>
+      <c r="J17" s="484"/>
     </row>
     <row r="18" spans="3:10">
       <c r="C18" s="152" t="s">
@@ -19059,7 +19059,7 @@
       </c>
       <c r="E18" s="154">
         <f>'CO_attain_MicroP_PR-TW_ESE'!C93</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="154">
         <f>'CO_attain_MicroP_PR-TW_ESE'!C92</f>
@@ -19073,11 +19073,11 @@
         <f>'CO_attainment for ESEBoard Exam'!C92</f>
         <v>3</v>
       </c>
-      <c r="I18" s="483">
+      <c r="I18" s="473">
         <f>'CO_attainment for Indirect'!C92</f>
         <v>3</v>
       </c>
-      <c r="J18" s="484"/>
+      <c r="J18" s="474"/>
     </row>
     <row r="19" spans="3:10">
       <c r="C19" s="156" t="s">
@@ -19089,7 +19089,7 @@
       </c>
       <c r="E19" s="158">
         <f>$E18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="158">
         <f>$F18</f>
@@ -19103,11 +19103,11 @@
         <f>$H18</f>
         <v>3</v>
       </c>
-      <c r="I19" s="495">
+      <c r="I19" s="485">
         <f>$I18</f>
         <v>3</v>
       </c>
-      <c r="J19" s="496"/>
+      <c r="J19" s="486"/>
     </row>
     <row r="20" spans="3:10">
       <c r="C20" s="156" t="s">
@@ -19119,7 +19119,7 @@
       </c>
       <c r="E20" s="158">
         <f>$E19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="158">
         <f>$F19</f>
@@ -19133,11 +19133,11 @@
         <f>$H19</f>
         <v>3</v>
       </c>
-      <c r="I20" s="495">
+      <c r="I20" s="485">
         <f t="shared" ref="I20:I23" si="0">$I19</f>
         <v>3</v>
       </c>
-      <c r="J20" s="496"/>
+      <c r="J20" s="486"/>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" s="156" t="s">
@@ -19149,7 +19149,7 @@
       </c>
       <c r="E21" s="158">
         <f>$E20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="158">
         <f>$F20</f>
@@ -19163,11 +19163,11 @@
         <f>$H20</f>
         <v>3</v>
       </c>
-      <c r="I21" s="495">
+      <c r="I21" s="485">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J21" s="496"/>
+      <c r="J21" s="486"/>
     </row>
     <row r="22" spans="3:10">
       <c r="C22" s="156" t="s">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="E22" s="158">
         <f>$E21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="158">
         <f>$F21</f>
@@ -19193,11 +19193,11 @@
         <f>$H21</f>
         <v>3</v>
       </c>
-      <c r="I22" s="495">
+      <c r="I22" s="485">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J22" s="496"/>
+      <c r="J22" s="486"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" thickBot="1">
       <c r="C23" s="160" t="s">
@@ -19209,7 +19209,7 @@
       </c>
       <c r="E23" s="162">
         <f>$E22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="162">
         <f>$F22</f>
@@ -19223,11 +19223,11 @@
         <f>$H22</f>
         <v>3</v>
       </c>
-      <c r="I23" s="495">
+      <c r="I23" s="485">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J23" s="496"/>
+      <c r="J23" s="486"/>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="152" t="s">
@@ -19239,7 +19239,7 @@
       </c>
       <c r="E24" s="154">
         <f t="shared" ref="E24:I24" si="1">ROUND(AVERAGE(E18:E23),2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="154">
         <f t="shared" si="1"/>
@@ -19253,11 +19253,11 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I24" s="483">
+      <c r="I24" s="473">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J24" s="484"/>
+      <c r="J24" s="474"/>
     </row>
     <row r="25" spans="3:10" ht="30">
       <c r="C25" s="164" t="s">
@@ -19283,10 +19283,10 @@
         <f>J11</f>
         <v>46.666666666666664</v>
       </c>
-      <c r="I25" s="485">
+      <c r="I25" s="475">
         <v>100</v>
       </c>
-      <c r="J25" s="486"/>
+      <c r="J25" s="476"/>
     </row>
     <row r="26" spans="3:10" ht="30.75" thickBot="1">
       <c r="C26" s="165" t="s">
@@ -19298,7 +19298,7 @@
       </c>
       <c r="E26" s="184">
         <f t="shared" ref="E26:H26" si="2">E24*E25/100</f>
-        <v>0.33333333333333326</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="F26" s="184">
         <f t="shared" si="2"/>
@@ -19312,23 +19312,23 @@
         <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
-      <c r="I26" s="487">
+      <c r="I26" s="477">
         <f>I24*I25/100</f>
         <v>3</v>
       </c>
-      <c r="J26" s="488"/>
+      <c r="J26" s="478"/>
     </row>
     <row r="27" spans="3:10" ht="30" customHeight="1" thickBot="1">
-      <c r="C27" s="476" t="s">
+      <c r="C27" s="487" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="476"/>
-      <c r="E27" s="476"/>
-      <c r="F27" s="476"/>
-      <c r="G27" s="476"/>
+      <c r="D27" s="487"/>
+      <c r="E27" s="487"/>
+      <c r="F27" s="487"/>
+      <c r="G27" s="487"/>
       <c r="H27" s="185">
         <f>SUM(D26:H26)</f>
-        <v>2.7666666666666666</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="I27" s="167" t="s">
         <v>93</v>
@@ -19339,13 +19339,13 @@
       </c>
     </row>
     <row r="28" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C28" s="476" t="s">
+      <c r="C28" s="487" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="476"/>
-      <c r="E28" s="476"/>
-      <c r="F28" s="476"/>
-      <c r="G28" s="476"/>
+      <c r="D28" s="487"/>
+      <c r="E28" s="487"/>
+      <c r="F28" s="487"/>
+      <c r="G28" s="487"/>
       <c r="H28" s="168">
         <v>0.8</v>
       </c>
@@ -19357,16 +19357,16 @@
       </c>
     </row>
     <row r="29" spans="3:10" ht="62.25" customHeight="1" thickBot="1">
-      <c r="C29" s="476" t="s">
+      <c r="C29" s="487" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="476"/>
-      <c r="E29" s="476"/>
-      <c r="F29" s="476"/>
-      <c r="G29" s="476"/>
+      <c r="D29" s="487"/>
+      <c r="E29" s="487"/>
+      <c r="F29" s="487"/>
+      <c r="G29" s="487"/>
       <c r="H29" s="185">
         <f>0.8*H27</f>
-        <v>2.2133333333333334</v>
+        <v>2.3466666666666667</v>
       </c>
       <c r="I29" s="167" t="s">
         <v>94</v>
@@ -19377,17 +19377,17 @@
       </c>
     </row>
     <row r="30" spans="3:10" ht="25.5" customHeight="1" thickBot="1">
-      <c r="C30" s="477" t="s">
+      <c r="C30" s="488" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="477"/>
-      <c r="E30" s="477"/>
-      <c r="F30" s="477"/>
-      <c r="G30" s="477"/>
-      <c r="H30" s="477"/>
+      <c r="D30" s="488"/>
+      <c r="E30" s="488"/>
+      <c r="F30" s="488"/>
+      <c r="G30" s="488"/>
+      <c r="H30" s="488"/>
       <c r="I30" s="170">
         <f>ROUNDUP(H29+J29,2)</f>
-        <v>2.82</v>
+        <v>2.9499999999999997</v>
       </c>
       <c r="J30" s="171"/>
     </row>
@@ -19419,6 +19419,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="25">
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
@@ -19430,20 +19444,6 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -19523,31 +19523,31 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="16.5" thickBot="1">
-      <c r="B8" s="292" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="295" t="s">
+      <c r="B8" s="296" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="299" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="296"/>
-      <c r="E8" s="283" t="s">
+      <c r="D8" s="300"/>
+      <c r="E8" s="305" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="301"/>
-      <c r="L8" s="283" t="s">
+      <c r="F8" s="306"/>
+      <c r="G8" s="306"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="307"/>
+      <c r="L8" s="305" t="s">
         <v>97</v>
       </c>
-      <c r="M8" s="284"/>
+      <c r="M8" s="306"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="293"/>
-      <c r="C9" s="297"/>
-      <c r="D9" s="298"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="302"/>
       <c r="E9" s="118" t="s">
         <v>98</v>
       </c>
@@ -19577,9 +19577,9 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="81" customHeight="1" thickBot="1">
-      <c r="B10" s="294"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="300"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="303"/>
+      <c r="D10" s="304"/>
       <c r="E10" s="119" t="s">
         <v>133</v>
       </c>
@@ -19859,11 +19859,11 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B16" s="497" t="s">
+      <c r="B16" s="508" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="498"/>
-      <c r="D16" s="499"/>
+      <c r="C16" s="509"/>
+      <c r="D16" s="510"/>
       <c r="E16" s="146">
         <f t="shared" ref="E16:M16" si="0">ROUNDUP(AVERAGE(E11:E15),2)</f>
         <v>2.8</v>
@@ -19902,80 +19902,80 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B17" s="500" t="s">
+      <c r="B17" s="511" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="501"/>
-      <c r="D17" s="502"/>
+      <c r="C17" s="512"/>
+      <c r="D17" s="513"/>
       <c r="E17" s="128">
         <f>ROUNDUP(('Overall CO attainment'!I30*E16)/3,2)</f>
-        <v>2.6399999999999997</v>
+        <v>2.76</v>
       </c>
       <c r="F17" s="128">
         <f>ROUNDUP(('Overall CO attainment'!I30*F16)/3,2)</f>
-        <v>2.2599999999999998</v>
+        <v>2.36</v>
       </c>
       <c r="G17" s="128">
         <f>ROUNDUP(('Overall CO attainment'!I30*G16)/3,2)</f>
-        <v>2.6399999999999997</v>
+        <v>2.76</v>
       </c>
       <c r="H17" s="128">
         <f>ROUNDUP(('Overall CO attainment'!I30*H16)/3,2)</f>
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="I17" s="128">
         <f>ROUNDUP(('Overall CO attainment'!I30*I16)/3,2)</f>
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="J17" s="128">
         <f>ROUNDUP(('Overall CO attainment'!I30*J16)/3,2)</f>
-        <v>2.4499999999999997</v>
+        <v>2.5599999999999996</v>
       </c>
       <c r="K17" s="128">
         <f>ROUNDUP(('Overall CO attainment'!I30*K16)/3,2)</f>
-        <v>2.6399999999999997</v>
+        <v>2.76</v>
       </c>
       <c r="L17" s="128" t="s">
         <v>187</v>
       </c>
       <c r="M17" s="128">
         <f>ROUNDUP(('Overall CO attainment'!I30*M16)/3,2)</f>
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="B18" s="500" t="s">
+      <c r="B18" s="511" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="501"/>
-      <c r="D18" s="502"/>
+      <c r="C18" s="512"/>
+      <c r="D18" s="513"/>
       <c r="E18" s="128">
         <f>ROUNDUP((E17/3)*100,2)</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F18" s="128">
         <f t="shared" ref="F18:M18" si="1">ROUNDUP((F17/3)*100,2)</f>
-        <v>75.34</v>
+        <v>78.67</v>
       </c>
       <c r="G18" s="128">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H18" s="128">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>49.339999999999996</v>
       </c>
       <c r="I18" s="128">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>49.339999999999996</v>
       </c>
       <c r="J18" s="128">
         <f t="shared" si="1"/>
-        <v>81.67</v>
+        <v>85.34</v>
       </c>
       <c r="K18" s="128">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L18" s="128" t="e">
         <f t="shared" si="1"/>
@@ -19983,7 +19983,7 @@
       </c>
       <c r="M18" s="128">
         <f t="shared" si="1"/>
-        <v>31.34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:13">
